--- a/db_schema.xlsx
+++ b/db_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>getUser</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>design user info screen</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -674,9 +677,6 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -684,6 +684,11 @@
       </c>
       <c r="B5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/db_schema.xlsx
+++ b/db_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>getUser</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>design user info screen</t>
+  </si>
+  <si>
+    <t>1. screens (with task bar options address/directions):</t>
+  </si>
+  <si>
+    <t>2. sharing :</t>
+  </si>
+  <si>
+    <t>login - phone based, provider will be phone number</t>
+  </si>
+  <si>
+    <t>user info - show only business/address</t>
+  </si>
+  <si>
+    <t>directions - carousel</t>
+  </si>
+  <si>
+    <t>SMS : default - server side. If failed then use client. - tell user for charge information</t>
+  </si>
+  <si>
+    <t>whatsapp : default server side. If failed then use client.</t>
   </si>
 </sst>
 </file>
@@ -644,10 +665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,6 +712,41 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/db_schema.xlsx
+++ b/db_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>getUser</t>
   </si>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +157,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,9 +187,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,18 +673,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -684,22 +693,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -707,42 +722,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>38</v>
       </c>

--- a/db_schema.xlsx
+++ b/db_schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>getUser</t>
   </si>
@@ -37,27 +37,6 @@
     <t>street_address</t>
   </si>
   <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>pin_code</t>
-  </si>
-  <si>
-    <t>routing_directions</t>
-  </si>
-  <si>
-    <t>parking_directions</t>
-  </si>
-  <si>
-    <t>walking_directions</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -82,18 +61,9 @@
     <t>contactShared</t>
   </si>
   <si>
-    <t>saveUserInfo</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>user details input screen</t>
   </si>
   <si>
@@ -137,6 +107,18 @@
   </si>
   <si>
     <t>whatsapp : default server side. If failed then use client.</t>
+  </si>
+  <si>
+    <t>putUser</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>uid</t>
   </si>
 </sst>
 </file>
@@ -522,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -535,7 +517,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -543,122 +525,97 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -687,85 +644,85 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
